--- a/instrumentation_test_summary_final.xlsx
+++ b/instrumentation_test_summary_final.xlsx
@@ -14,15 +14,15 @@
     <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
     <sheet name="instrumentation_test_summary" sheetId="1" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9859" uniqueCount="2550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9861" uniqueCount="2552">
   <si>
     <t>project</t>
   </si>
@@ -7672,6 +7672,12 @@
   </si>
   <si>
     <t>NO emulator</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Rate in Group</t>
   </si>
 </sst>
 </file>
@@ -7815,7 +7821,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7995,6 +8001,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -8172,7 +8184,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8194,6 +8206,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="33" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -20913,7 +20935,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F3:G20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0"/>
@@ -47680,7 +47702,7 @@
   <dimension ref="A1:K2525"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="K18" sqref="K5:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -47688,6 +47710,7 @@
     <col min="6" max="6" width="76.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -47734,8 +47757,12 @@
       <c r="I3" s="4" t="s">
         <v>2547</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="J3" s="4" t="s">
+        <v>2550</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>2551</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
@@ -47793,7 +47820,10 @@
         <f t="shared" ref="J5:J18" si="1">I5/$I$19</f>
         <v>7.8014184397163122E-2</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="11">
+        <f>J5+J4</f>
+        <v>8.1560283687943269E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
@@ -47811,14 +47841,14 @@
       <c r="G6" s="3">
         <v>2</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="16" t="s">
         <v>1663</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="18">
         <f t="shared" si="1"/>
         <v>7.0921985815602835E-3</v>
       </c>
@@ -47901,14 +47931,14 @@
       <c r="G9" s="3">
         <v>27</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="17">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="18">
         <f t="shared" si="1"/>
         <v>9.5744680851063829E-2</v>
       </c>
@@ -47930,18 +47960,18 @@
       <c r="G10" s="3">
         <v>1</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="13" t="s">
         <v>821</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="15">
         <f t="shared" si="1"/>
         <v>3.5460992907801418E-3</v>
       </c>
-      <c r="K10" s="6"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
@@ -48017,18 +48047,18 @@
       <c r="G13" s="3">
         <v>1</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="13" t="s">
         <v>767</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="15">
         <f t="shared" si="1"/>
         <v>3.5460992907801418E-3</v>
       </c>
-      <c r="K13" s="6"/>
+      <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
@@ -48078,14 +48108,14 @@
       <c r="G15" s="3">
         <v>37</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="17">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="18">
         <f t="shared" si="1"/>
         <v>0.13120567375886524</v>
       </c>
@@ -48107,18 +48137,18 @@
       <c r="G16" s="3">
         <v>1</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="13" t="s">
         <v>2242</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="15">
         <f t="shared" si="1"/>
         <v>3.5460992907801418E-3</v>
       </c>
-      <c r="K16" s="6"/>
+      <c r="K16" s="14"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
@@ -48168,18 +48198,21 @@
       <c r="G18" s="3">
         <v>35</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="17">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="18">
         <f t="shared" si="1"/>
         <v>0.12411347517730496</v>
       </c>
-      <c r="K18" s="6"/>
+      <c r="K18" s="11">
+        <f>J18</f>
+        <v>0.12411347517730496</v>
+      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
